--- a/admin/Timesheets/Caroline Chang/Week 11 Timesheet.xlsx
+++ b/admin/Timesheets/Caroline Chang/Week 11 Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\CSCI_Classes\CSCI4308\capstone_proj\admin\Timesheets\Caroline Chang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2E778F-C010-48C4-8EB6-5C702073582F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054219A3-2863-4905-9B42-2325065042EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A4:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,7 +589,9 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1">
+        <v>5.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
